--- a/Soluzioni_Verifica.xlsx
+++ b/Soluzioni_Verifica.xlsx
@@ -9,48 +9,85 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Versione A - Es.1" sheetId="3" r:id="rId1"/>
+    <sheet name="Versione B - Es.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$8</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$4:$S$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$4:$S$4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -531,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -703,4 +740,182 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>8.6666666666666714</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <f>SUMPRODUCT($F$3:$F$5,I$3:I$5)</f>
+        <v>325.33333333333246</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:S3" si="0">SUMPRODUCT($F$3:$F$5,J$3:J$5)</f>
+        <v>152.66666666666652</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>499.99999999999898</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>26.000000000000014</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>117.99999999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P4" s="6">
+        <v>830</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>500</v>
+      </c>
+      <c r="R4" s="6">
+        <v>200</v>
+      </c>
+      <c r="S4" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>21.99999999999994</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>SUMPRODUCT(F3:F5,G3:G5)</f>
+        <v>333.33333333333263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Soluzioni_Verifica.xlsx
+++ b/Soluzioni_Verifica.xlsx
@@ -9,84 +9,124 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Versione A - Es.1" sheetId="3" r:id="rId1"/>
     <sheet name="Versione B - Es.1" sheetId="1" r:id="rId2"/>
+    <sheet name="Versione A - Es.2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$8:$G$9</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$8</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Versione A - Es.2'!$F$12</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$4:$S$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$8</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$4:$S$4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$10</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>X</t>
   </si>
@@ -159,16 +199,42 @@
   </si>
   <si>
     <t>E_E</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>X_0</t>
+  </si>
+  <si>
+    <t>Y_0</t>
+  </si>
+  <si>
+    <t>Valori iniziali preferenziali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +298,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -265,16 +343,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,8 +406,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,34 +710,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -619,19 +754,19 @@
       <c r="G3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>11</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>12</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>8</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>9</v>
       </c>
       <c r="O3">
@@ -668,34 +803,34 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>20</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>8</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>12</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>6</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>1170</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="7">
         <v>940</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>400</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>130</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="7">
         <v>115</v>
       </c>
     </row>
@@ -712,27 +847,27 @@
       <c r="G5" s="2">
         <v>9</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>15</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>21</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <f>SUMPRODUCT(F3:F5,G3:G5)</f>
         <v>183</v>
       </c>
@@ -746,41 +881,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -797,19 +932,19 @@
       <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>10</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>12</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>3</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>6</v>
       </c>
       <c r="O3">
@@ -846,34 +981,34 @@
       <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>11</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>12</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>15</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>1200</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="7">
         <v>830</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>500</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>200</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="7">
         <v>118</v>
       </c>
     </row>
@@ -890,27 +1025,27 @@
       <c r="G5" s="2">
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>14</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>18</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <f>SUMPRODUCT(F3:F5,G3:G5)</f>
         <v>333.33333333333263</v>
       </c>
@@ -918,4 +1053,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="5:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.3100051259654819</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4">
+        <f>3+2/5*SIN(2*PI()/3*G8)</f>
+        <v>3.1550022757976457</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.1550025629827783</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <f>2+2/5*SIN(2*PI()/3*G8)</f>
+        <v>2.1550022757976457</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <f>1/2*G8+1</f>
+        <v>3.155002562982741</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="5:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12">
+        <f>SUMPRODUCT(G8:G9,H8:H9)</f>
+        <v>33.015033318775821</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Soluzioni_Verifica.xlsx
+++ b/Soluzioni_Verifica.xlsx
@@ -1,133 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_HOME\Desktop\Pr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33442D5C-E0DB-4F8D-B55F-85A6805D574A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versione A - Es.1" sheetId="3" r:id="rId1"/>
     <sheet name="Versione B - Es.1" sheetId="1" r:id="rId2"/>
     <sheet name="Versione A - Es.2" sheetId="4" r:id="rId3"/>
+    <sheet name="Versione B - Es.2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$8:$G$9</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Versione B - Es.2'!$G$8:$G$9</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$3:$F$5</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$3:$F$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Versione B - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Versione B - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$3:$S$3</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$3:$S$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Versione B - Es.2'!$G$9</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Versione A - Es.2'!$G$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Versione A - Es.1'!$F$8</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Versione A - Es.2'!$F$12</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Versione B - Es.1'!$F$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Versione B - Es.2'!$F$12</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Versione B - Es.2'!$K$10</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Versione A - Es.1'!$O$4:$S$4</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$8</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Versione B - Es.1'!$O$4:$S$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Versione B - Es.2'!$K$8</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$10</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Versione B - Es.2'!$K$9</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Versione A - Es.2'!$K$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>X</t>
   </si>
@@ -222,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,16 +738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
@@ -741,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -790,7 +828,7 @@
         <v>115.00000000000001</v>
       </c>
     </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -834,7 +872,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -863,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:19" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="19.8" x14ac:dyDescent="0.4">
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
@@ -878,16 +916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
@@ -919,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1006,7 @@
         <v>117.99999999999984</v>
       </c>
     </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:19" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="19.8" x14ac:dyDescent="0.4">
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1056,23 +1094,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="E3:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="5:11" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.3100051259654819</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4">
+        <f>3+2/5*SIN(2*PI()/3*G8)</f>
+        <v>3.1550022757976457</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.1550025629827783</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <f>2+2/5*SIN(2*PI()/3*G8)</f>
+        <v>2.1550022757976457</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <f>1/2*G8+1</f>
+        <v>3.155002562982741</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="5:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12">
+        <f>SUMPRODUCT(G8:G9,H8:H9)</f>
+        <v>33.015033318775821</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="5:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" ht="19.8" x14ac:dyDescent="0.4">
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1228,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,20 +1236,20 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4.3100051259654819</v>
+        <v>4.0582245251409175</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="4">
-        <f>3+2/5*SIN(2*PI()/3*G8)</f>
-        <v>3.1550022757976457</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+        <f>3+1/7*POWER(G8,2)</f>
+        <v>5.3527408994936039</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.1550025629827783</v>
+        <v>4.3527415083802516</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -1126,27 +1266,27 @@
         <v>18</v>
       </c>
       <c r="K9" s="4">
-        <f>2+2/5*SIN(2*PI()/3*G8)</f>
-        <v>2.1550022757976457</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+        <f>2+1/7*POWER(G8,2)</f>
+        <v>4.3527408994936039</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="4">
-        <f>1/2*G8+1</f>
-        <v>3.155002562982741</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="5:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>1/3*G8+3</f>
+        <v>4.3527415083803058</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="5:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="12">
         <f>SUMPRODUCT(G8:G9,H8:H9)</f>
-        <v>33.015033318775821</v>
+        <v>86.695299944155934</v>
       </c>
     </row>
   </sheetData>
